--- a/consumption_tables/Total energy consumption._              Billion Btu/Geothermal energy, total consumed._                       Billion Btu.xlsx
+++ b/consumption_tables/Total energy consumption._              Billion Btu/Geothermal energy, total consumed._                       Billion Btu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
   <si>
     <t>StateCode</t>
   </si>
@@ -56,154 +56,565 @@
     <t>AL</t>
   </si>
   <si>
+    <t>0.0007805271680493005%</t>
+  </si>
+  <si>
+    <t>0.007383903822819824%</t>
+  </si>
+  <si>
+    <t>0.006603376654770524%</t>
+  </si>
+  <si>
     <t>AR</t>
   </si>
   <si>
+    <t>0.012618075393000474%</t>
+  </si>
+  <si>
+    <t>0.07655125238985809%</t>
+  </si>
+  <si>
+    <t>0.06393317699685762%</t>
+  </si>
+  <si>
     <t>AZ</t>
   </si>
   <si>
+    <t>0.02513550272603048%</t>
+  </si>
+  <si>
+    <t>0.02396061291942358%</t>
+  </si>
+  <si>
+    <t>-0.0011748898066068977%</t>
+  </si>
+  <si>
     <t>CA</t>
   </si>
   <si>
+    <t>2.0435708918848423%</t>
+  </si>
+  <si>
+    <t>1.470466394140958%</t>
+  </si>
+  <si>
+    <t>-0.5731044977438844%</t>
+  </si>
+  <si>
     <t>CO</t>
   </si>
   <si>
+    <t>0.043412454765294047%</t>
+  </si>
+  <si>
+    <t>0.051275919166452175%</t>
+  </si>
+  <si>
+    <t>0.007863464401158128%</t>
+  </si>
+  <si>
     <t>CT</t>
   </si>
   <si>
     <t>inf</t>
   </si>
   <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>0.0027940319477595854%</t>
+  </si>
+  <si>
     <t>DE</t>
   </si>
   <si>
+    <t>0.021531137940213902%</t>
+  </si>
+  <si>
+    <t>0.15466791360178406%</t>
+  </si>
+  <si>
+    <t>0.13313677566157014%</t>
+  </si>
+  <si>
     <t>FL</t>
   </si>
   <si>
+    <t>0.03925801139274806%</t>
+  </si>
+  <si>
+    <t>0.23707503721979067%</t>
+  </si>
+  <si>
+    <t>0.1978170258270426%</t>
+  </si>
+  <si>
     <t>GA</t>
   </si>
   <si>
+    <t>0.0017939617042994982%</t>
+  </si>
+  <si>
+    <t>0.011047917800685743%</t>
+  </si>
+  <si>
+    <t>0.009253956096386243%</t>
+  </si>
+  <si>
     <t>HI</t>
   </si>
   <si>
+    <t>0.7626992613785241%</t>
+  </si>
+  <si>
     <t>IA</t>
   </si>
   <si>
+    <t>0.006660527704094956%</t>
+  </si>
+  <si>
+    <t>0.0856970832218357%</t>
+  </si>
+  <si>
+    <t>0.07903655551774073%</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
+    <t>0.13221053047008738%</t>
+  </si>
+  <si>
+    <t>0.42089163423048537%</t>
+  </si>
+  <si>
+    <t>0.288681103760398%</t>
+  </si>
+  <si>
     <t>IL</t>
   </si>
   <si>
+    <t>0.007539424909422187%</t>
+  </si>
+  <si>
+    <t>0.05179139380227963%</t>
+  </si>
+  <si>
+    <t>0.04425196889285744%</t>
+  </si>
+  <si>
     <t>IN</t>
   </si>
   <si>
+    <t>0.02014117276993685%</t>
+  </si>
+  <si>
+    <t>0.16326074606682833%</t>
+  </si>
+  <si>
+    <t>0.14311957329689148%</t>
+  </si>
+  <si>
     <t>KS</t>
   </si>
   <si>
+    <t>0.004032050109943692%</t>
+  </si>
+  <si>
+    <t>0.08996601796918802%</t>
+  </si>
+  <si>
+    <t>0.08593396785924433%</t>
+  </si>
+  <si>
     <t>KY</t>
   </si>
   <si>
+    <t>0.016201771530411135%</t>
+  </si>
+  <si>
+    <t>0.15717402038625863%</t>
+  </si>
+  <si>
+    <t>0.1409722488558475%</t>
+  </si>
+  <si>
     <t>LA</t>
   </si>
   <si>
+    <t>0.0031360872672005964%</t>
+  </si>
+  <si>
+    <t>0.04325062492691772%</t>
+  </si>
+  <si>
+    <t>0.04011453765971712%</t>
+  </si>
+  <si>
     <t>MA</t>
   </si>
   <si>
+    <t>0.0014216237502150206%</t>
+  </si>
+  <si>
+    <t>0.05945216799701562%</t>
+  </si>
+  <si>
+    <t>0.058030544246800604%</t>
+  </si>
+  <si>
     <t>MD</t>
   </si>
   <si>
+    <t>0.005673906413641962%</t>
+  </si>
+  <si>
+    <t>0.04072982123181271%</t>
+  </si>
+  <si>
+    <t>0.03505591481817075%</t>
+  </si>
+  <si>
     <t>ME</t>
   </si>
   <si>
+    <t>0.017749335016233245%</t>
+  </si>
+  <si>
     <t>MI</t>
   </si>
   <si>
+    <t>0.020145387767400446%</t>
+  </si>
+  <si>
+    <t>0.18765258290608916%</t>
+  </si>
+  <si>
+    <t>0.16750719513868872%</t>
+  </si>
+  <si>
     <t>MN</t>
   </si>
   <si>
+    <t>0.01034964675584969%</t>
+  </si>
+  <si>
+    <t>0.060737174145060704%</t>
+  </si>
+  <si>
+    <t>0.05038752738921101%</t>
+  </si>
+  <si>
     <t>MO</t>
   </si>
   <si>
+    <t>0.003033044003402401%</t>
+  </si>
+  <si>
+    <t>0.019269088440736604%</t>
+  </si>
+  <si>
+    <t>0.0162360444373342%</t>
+  </si>
+  <si>
     <t>MS</t>
   </si>
   <si>
+    <t>0.002429517274353724%</t>
+  </si>
+  <si>
+    <t>0.08457742188948432%</t>
+  </si>
+  <si>
+    <t>0.08214790461513059%</t>
+  </si>
+  <si>
     <t>MT</t>
   </si>
   <si>
+    <t>0.036253672122940235%</t>
+  </si>
+  <si>
+    <t>0.08609369651077832%</t>
+  </si>
+  <si>
+    <t>0.049840024387838085%</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
+    <t>0.005983488490540981%</t>
+  </si>
+  <si>
+    <t>0.038316468671829154%</t>
+  </si>
+  <si>
+    <t>0.032332980181288176%</t>
+  </si>
+  <si>
     <t>ND</t>
   </si>
   <si>
+    <t>0.026239832065074783%</t>
+  </si>
+  <si>
+    <t>0.16097096103613948%</t>
+  </si>
+  <si>
+    <t>0.1347311289710647%</t>
+  </si>
+  <si>
     <t>NE</t>
   </si>
   <si>
+    <t>0.015223509665977169%</t>
+  </si>
+  <si>
+    <t>0.14206660016574435%</t>
+  </si>
+  <si>
+    <t>0.1268430904997672%</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
+    <t>0.009501530073980878%</t>
+  </si>
+  <si>
     <t>NJ</t>
   </si>
   <si>
+    <t>0.0028051752366254367%</t>
+  </si>
+  <si>
+    <t>0.020370222232130485%</t>
+  </si>
+  <si>
+    <t>0.017565046995505047%</t>
+  </si>
+  <si>
     <t>NM</t>
   </si>
   <si>
+    <t>0.019616423473314118%</t>
+  </si>
+  <si>
+    <t>0.06779590767322372%</t>
+  </si>
+  <si>
+    <t>0.0481794841999096%</t>
+  </si>
+  <si>
     <t>NV</t>
   </si>
   <si>
+    <t>2.1601385346684%</t>
+  </si>
+  <si>
+    <t>4.70103365776906%</t>
+  </si>
+  <si>
+    <t>2.5408951231006602%</t>
+  </si>
+  <si>
     <t>NY</t>
   </si>
   <si>
+    <t>0.0019542371207073375%</t>
+  </si>
+  <si>
+    <t>0.03181659037844827%</t>
+  </si>
+  <si>
+    <t>0.029862353257740934%</t>
+  </si>
+  <si>
     <t>OH</t>
   </si>
   <si>
+    <t>0.009202457241723888%</t>
+  </si>
+  <si>
+    <t>0.09182412432264672%</t>
+  </si>
+  <si>
+    <t>0.08262166708092283%</t>
+  </si>
+  <si>
     <t>OK</t>
   </si>
   <si>
+    <t>7.231468458142452e-05%</t>
+  </si>
+  <si>
+    <t>0.0014716071789903549%</t>
+  </si>
+  <si>
+    <t>0.0013992924944089304%</t>
+  </si>
+  <si>
     <t>OR</t>
   </si>
   <si>
+    <t>0.040073768447223254%</t>
+  </si>
+  <si>
+    <t>0.3029188077249522%</t>
+  </si>
+  <si>
+    <t>0.26284503927772895%</t>
+  </si>
+  <si>
     <t>PA</t>
   </si>
   <si>
+    <t>0.0055554302680742625%</t>
+  </si>
+  <si>
+    <t>0.055702038921348826%</t>
+  </si>
+  <si>
+    <t>0.05014660865327456%</t>
+  </si>
+  <si>
     <t>RI</t>
   </si>
   <si>
+    <t>0.02812564763004411%</t>
+  </si>
+  <si>
     <t>SC</t>
   </si>
   <si>
+    <t>0.0064926787129610496%</t>
+  </si>
+  <si>
+    <t>0.039308748380333984%</t>
+  </si>
+  <si>
+    <t>0.03281606966737294%</t>
+  </si>
+  <si>
     <t>SD</t>
   </si>
   <si>
+    <t>0.07086454747924681%</t>
+  </si>
+  <si>
+    <t>0.48709383857585026%</t>
+  </si>
+  <si>
+    <t>0.41622929109660345%</t>
+  </si>
+  <si>
     <t>TN</t>
   </si>
   <si>
+    <t>0.0014508588526384984%</t>
+  </si>
+  <si>
+    <t>0.009827207246112024%</t>
+  </si>
+  <si>
+    <t>0.008376348393473525%</t>
+  </si>
+  <si>
     <t>TX</t>
   </si>
   <si>
+    <t>0.0022900724099547895%</t>
+  </si>
+  <si>
+    <t>0.019212866386764615%</t>
+  </si>
+  <si>
+    <t>0.016922793976809826%</t>
+  </si>
+  <si>
     <t>UT</t>
   </si>
   <si>
+    <t>0.37398037162899805%</t>
+  </si>
+  <si>
+    <t>0.6082012993333932%</t>
+  </si>
+  <si>
+    <t>0.23422092770439512%</t>
+  </si>
+  <si>
     <t>VA</t>
   </si>
   <si>
+    <t>0.006365589557988739%</t>
+  </si>
+  <si>
+    <t>0.0718419022012511%</t>
+  </si>
+  <si>
+    <t>0.06547631264326235%</t>
+  </si>
+  <si>
     <t>VT</t>
   </si>
   <si>
+    <t>0.02196969696969697%</t>
+  </si>
+  <si>
     <t>WA</t>
   </si>
   <si>
+    <t>0.0037624662233145863%</t>
+  </si>
+  <si>
+    <t>0.057131534293505204%</t>
+  </si>
+  <si>
+    <t>0.053369068070190616%</t>
+  </si>
+  <si>
     <t>WI</t>
   </si>
   <si>
+    <t>0.005320700150259266%</t>
+  </si>
+  <si>
+    <t>0.034624752137445064%</t>
+  </si>
+  <si>
+    <t>0.029304051987185796%</t>
+  </si>
+  <si>
     <t>WV</t>
   </si>
   <si>
+    <t>0.0041294851693411535%</t>
+  </si>
+  <si>
     <t>WY</t>
   </si>
   <si>
+    <t>0.16248112940658088%</t>
+  </si>
+  <si>
+    <t>0.12658469528028105%</t>
+  </si>
+  <si>
+    <t>-0.03589643412629984%</t>
+  </si>
+  <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>0.20205308952707837%</t>
+  </si>
+  <si>
+    <t>0.21782392748892804%</t>
+  </si>
+  <si>
+    <t>0.015770837961849665%</t>
   </si>
 </sst>
 </file>
@@ -634,14 +1045,14 @@
       <c r="G2" s="2" t="n">
         <v>4854000</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>7.805271680493006e-06</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>7.383903822819824e-05</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>6.603376654770524e-05</v>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>3.209876543209877e-06</v>
@@ -658,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>108</v>
@@ -675,14 +1086,14 @@
       <c r="G3" s="2" t="n">
         <v>2978000</v>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>0.0001261807539300047</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0.000765512523898581</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>0.0006393317699685762</v>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="K3" s="2" t="n">
         <v>4.582095884599067e-05</v>
@@ -699,7 +1110,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>236</v>
@@ -716,14 +1127,14 @@
       <c r="G4" s="2" t="n">
         <v>6818000</v>
       </c>
-      <c r="H4" s="2" t="n">
-        <v>0.0002513550272603048</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0.0002396061291942358</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>-1.174889806606895e-05</v>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>6.406080347448426e-05</v>
@@ -740,7 +1151,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>152147</v>
@@ -757,14 +1168,14 @@
       <c r="G5" s="2" t="n">
         <v>38994000</v>
       </c>
-      <c r="H5" s="2" t="n">
-        <v>0.02043570891884842</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0.01470466394140958</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>-0.005731044977438843</v>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="n">
         <v>0.005078337783711615</v>
@@ -781,7 +1192,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>405</v>
@@ -798,14 +1209,14 @@
       <c r="G6" s="2" t="n">
         <v>5449000</v>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>0.0004341245476529404</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>0.0005127591916645217</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>7.863464401158127e-05</v>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="K6" s="2" t="n">
         <v>0.0001224304715840387</v>
@@ -822,7 +1233,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>0</v>
@@ -831,7 +1242,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>3292000</v>
@@ -839,14 +1250,14 @@
       <c r="G7" s="2" t="n">
         <v>3585000</v>
       </c>
-      <c r="H7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>2.794031947759585e-05</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>2.794031947759585e-05</v>
+      <c r="H7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="K7" s="2" t="n">
         <v>0</v>
@@ -863,7 +1274,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>55</v>
@@ -880,14 +1291,14 @@
       <c r="G8" s="2" t="n">
         <v>944000</v>
       </c>
-      <c r="H8" s="2" t="n">
-        <v>0.000215311379402139</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>0.001546679136017841</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>0.001331367756615702</v>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K8" s="2" t="n">
         <v>8.208955223880597e-05</v>
@@ -904,7 +1315,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1288</v>
@@ -921,14 +1332,14 @@
       <c r="G9" s="2" t="n">
         <v>20245000</v>
       </c>
-      <c r="H9" s="2" t="n">
-        <v>0.0003925801139274806</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>0.002370750372197907</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>0.001978170258270426</v>
+      <c r="H9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>9.882605693240236e-05</v>
@@ -945,7 +1356,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>40</v>
@@ -962,14 +1373,14 @@
       <c r="G10" s="2" t="n">
         <v>10199000</v>
       </c>
-      <c r="H10" s="2" t="n">
-        <v>1.793961704299498e-05</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>0.0001104791780068574</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>9.253956096386244e-05</v>
+      <c r="H10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>6.141563027790573e-06</v>
@@ -986,7 +1397,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>0</v>
@@ -995,7 +1406,7 @@
         <v>2154</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>1113000</v>
@@ -1003,14 +1414,14 @@
       <c r="G11" s="2" t="n">
         <v>1425000</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0.00762699261378524</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>0.00762699261378524</v>
+      <c r="H11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>0</v>
@@ -1027,7 +1438,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>63</v>
@@ -1044,14 +1455,14 @@
       <c r="G12" s="2" t="n">
         <v>3122000</v>
       </c>
-      <c r="H12" s="2" t="n">
-        <v>6.660527704094957e-05</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>0.0008569708322183569</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>0.0007903655551774073</v>
+      <c r="H12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>2.26537216828479e-05</v>
@@ -1068,7 +1479,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>536</v>
@@ -1085,14 +1496,14 @@
       <c r="G13" s="2" t="n">
         <v>1653000</v>
       </c>
-      <c r="H13" s="2" t="n">
-        <v>0.001322105304700874</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>0.004208916342304854</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>0.00288681103760398</v>
+      <c r="H13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>0.0005296442687747036</v>
@@ -1109,7 +1520,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>270</v>
@@ -1126,14 +1537,14 @@
       <c r="G14" s="2" t="n">
         <v>12839000</v>
       </c>
-      <c r="H14" s="2" t="n">
-        <v>7.539424909422187e-05</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>0.0005179139380227963</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>0.0004425196889285744</v>
+      <c r="H14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>2.357460927267965e-05</v>
@@ -1150,7 +1561,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>502</v>
@@ -1167,14 +1578,14 @@
       <c r="G15" s="2" t="n">
         <v>6613000</v>
       </c>
-      <c r="H15" s="2" t="n">
-        <v>0.0002014117276993685</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>0.001632607460668283</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>0.001431195732968915</v>
+      <c r="H15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>9.032025908600215e-05</v>
@@ -1191,7 +1602,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>43</v>
@@ -1208,14 +1619,14 @@
       <c r="G16" s="2" t="n">
         <v>2907000</v>
       </c>
-      <c r="H16" s="2" t="n">
-        <v>4.032050109943692e-05</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>0.0008996601796918802</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>0.0008593396785924433</v>
+      <c r="H16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>1.733172108020959e-05</v>
@@ -1232,7 +1643,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>237</v>
@@ -1249,14 +1660,14 @@
       <c r="G17" s="2" t="n">
         <v>4425000</v>
       </c>
-      <c r="H17" s="2" t="n">
-        <v>0.0001620177153041114</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>0.001571740203862586</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>0.001409722488558475</v>
+      <c r="H17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>6.415809420682187e-05</v>
@@ -1273,7 +1684,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>121</v>
@@ -1290,14 +1701,14 @@
       <c r="G18" s="2" t="n">
         <v>4669000</v>
       </c>
-      <c r="H18" s="2" t="n">
-        <v>3.136087267200597e-05</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>0.0004325062492691772</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>0.0004011453765971712</v>
+      <c r="H18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>2.865940312648034e-05</v>
@@ -1314,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>20</v>
@@ -1331,14 +1742,14 @@
       <c r="G19" s="2" t="n">
         <v>6784000</v>
       </c>
-      <c r="H19" s="2" t="n">
-        <v>1.421623750215021e-05</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>0.0005945216799701562</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>0.0005803054424680061</v>
+      <c r="H19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>3.320604349991699e-06</v>
@@ -1355,7 +1766,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>72</v>
@@ -1372,14 +1783,14 @@
       <c r="G20" s="2" t="n">
         <v>5995000</v>
       </c>
-      <c r="H20" s="2" t="n">
-        <v>5.673906413641962e-05</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>0.0004072982123181271</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>0.0003505591481817074</v>
+      <c r="H20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="K20" s="2" t="n">
         <v>1.5e-05</v>
@@ -1396,7 +1807,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>0</v>
@@ -1405,7 +1816,7 @@
         <v>72</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>1232000</v>
@@ -1413,14 +1824,14 @@
       <c r="G21" s="2" t="n">
         <v>1329000</v>
       </c>
-      <c r="H21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>0.0001774933501623325</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>0.0001774933501623325</v>
+      <c r="H21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="K21" s="2" t="n">
         <v>0</v>
@@ -1437,7 +1848,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>579</v>
@@ -1454,14 +1865,14 @@
       <c r="G22" s="2" t="n">
         <v>9918000</v>
       </c>
-      <c r="H22" s="2" t="n">
-        <v>0.0002014538776740045</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>0.001876525829060892</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>0.001675071951386887</v>
+      <c r="H22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="K22" s="2" t="n">
         <v>6.218451294168189e-05</v>
@@ -1478,7 +1889,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>145</v>
@@ -1495,14 +1906,14 @@
       <c r="G23" s="2" t="n">
         <v>5482000</v>
       </c>
-      <c r="H23" s="2" t="n">
-        <v>0.0001034964675584969</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>0.0006073717414506071</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>0.0005038752738921101</v>
+      <c r="H23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="K23" s="2" t="n">
         <v>3.302961275626424e-05</v>
@@ -1519,7 +1930,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>45</v>
@@ -1536,14 +1947,14 @@
       <c r="G24" s="2" t="n">
         <v>6076000</v>
       </c>
-      <c r="H24" s="2" t="n">
-        <v>3.033044003402401e-05</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>0.0001926908844073661</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>0.000162360444373342</v>
+      <c r="H24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="K24" s="2" t="n">
         <v>8.773640085786704e-06</v>
@@ -1560,7 +1971,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>25</v>
@@ -1577,14 +1988,14 @@
       <c r="G25" s="2" t="n">
         <v>2989000</v>
       </c>
-      <c r="H25" s="2" t="n">
-        <v>2.429517274353724e-05</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>0.0008457742188948432</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>0.0008214790461513059</v>
+      <c r="H25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="K25" s="2" t="n">
         <v>9.693679720822024e-06</v>
@@ -1601,7 +2012,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>126</v>
@@ -1618,14 +2029,14 @@
       <c r="G26" s="2" t="n">
         <v>1032000</v>
       </c>
-      <c r="H26" s="2" t="n">
-        <v>0.0003625367212294023</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>0.0008609369651077832</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>0.0004984002438783808</v>
+      <c r="H26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="K26" s="2" t="n">
         <v>0.0001575</v>
@@ -1642,7 +2053,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>123</v>
@@ -1659,14 +2070,14 @@
       <c r="G27" s="2" t="n">
         <v>10035000</v>
       </c>
-      <c r="H27" s="2" t="n">
-        <v>5.98348849054098e-05</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>0.0003831646867182915</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>0.0003233298018128817</v>
+      <c r="H27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="K27" s="2" t="n">
         <v>1.845738295318127e-05</v>
@@ -1683,7 +2094,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>82</v>
@@ -1700,14 +2111,14 @@
       <c r="G28" s="2" t="n">
         <v>757000</v>
       </c>
-      <c r="H28" s="2" t="n">
-        <v>0.0002623983206507478</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>0.001609709610361395</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>0.001347311289710647</v>
+      <c r="H28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="K28" s="2" t="n">
         <v>0.0001285266457680251</v>
@@ -1724,7 +2135,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>80</v>
@@ -1741,14 +2152,14 @@
       <c r="G29" s="2" t="n">
         <v>2884000</v>
       </c>
-      <c r="H29" s="2" t="n">
-        <v>0.0001522350966597717</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>0.001420666001657444</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>0.001268430904997672</v>
+      <c r="H29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="K29" s="2" t="n">
         <v>6.552006552006552e-05</v>
@@ -1765,7 +2176,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>0</v>
@@ -1774,7 +2185,7 @@
         <v>29</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>1112000</v>
@@ -1782,14 +2193,14 @@
       <c r="G30" s="2" t="n">
         <v>1330000</v>
       </c>
-      <c r="H30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>9.501530073980879e-05</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>9.501530073980879e-05</v>
+      <c r="H30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="K30" s="2" t="n">
         <v>0</v>
@@ -1806,7 +2217,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>63</v>
@@ -1823,14 +2234,14 @@
       <c r="G31" s="2" t="n">
         <v>8935000</v>
       </c>
-      <c r="H31" s="2" t="n">
-        <v>2.805175236625437e-05</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>0.0002037022223213049</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>0.0001756504699550505</v>
+      <c r="H31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="K31" s="2" t="n">
         <v>8.115419296663661e-06</v>
@@ -1847,7 +2258,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>117</v>
@@ -1864,14 +2275,14 @@
       <c r="G32" s="2" t="n">
         <v>2080000</v>
       </c>
-      <c r="H32" s="2" t="n">
-        <v>0.0001961642347331412</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>0.0006779590767322372</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>0.000481794841999096</v>
+      <c r="H32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="K32" s="2" t="n">
         <v>7.687253613666229e-05</v>
@@ -1888,7 +2299,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>8707</v>
@@ -1905,14 +2316,14 @@
       <c r="G33" s="2" t="n">
         <v>1894000</v>
       </c>
-      <c r="H33" s="4" t="n">
-        <v>0.021601385346684</v>
-      </c>
-      <c r="I33" s="4" t="n">
-        <v>0.0470103365776906</v>
-      </c>
-      <c r="J33" s="4" t="n">
-        <v>0.0254089512310066</v>
+      <c r="H33" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="K33" s="4" t="n">
         <v>0.005503792667509481</v>
@@ -1929,7 +2340,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>73</v>
@@ -1946,14 +2357,14 @@
       <c r="G34" s="2" t="n">
         <v>19747000</v>
       </c>
-      <c r="H34" s="2" t="n">
-        <v>1.954237120707337e-05</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>0.0003181659037844827</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>0.0002986235325774093</v>
+      <c r="H34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="K34" s="2" t="n">
         <v>4.050829587703235e-06</v>
@@ -1970,7 +2381,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>347</v>
@@ -1987,14 +2398,14 @@
       <c r="G35" s="2" t="n">
         <v>11605000</v>
       </c>
-      <c r="H35" s="2" t="n">
-        <v>9.202457241723888e-05</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>0.0009182412432264672</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>0.0008262166708092283</v>
+      <c r="H35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="K35" s="2" t="n">
         <v>3.194035346097201e-05</v>
@@ -2011,7 +2422,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1</v>
@@ -2028,14 +2439,14 @@
       <c r="G36" s="2" t="n">
         <v>3907000</v>
       </c>
-      <c r="H36" s="2" t="n">
-        <v>7.231468458142453e-07</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>1.471607178990355e-05</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>1.39929249440893e-05</v>
+      <c r="H36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="K36" s="2" t="n">
         <v>3.175611305176247e-07</v>
@@ -2052,7 +2463,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>392</v>
@@ -2069,14 +2480,14 @@
       <c r="G37" s="2" t="n">
         <v>4025000</v>
       </c>
-      <c r="H37" s="2" t="n">
-        <v>0.0004007376844722326</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>0.003029188077249522</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>0.00262845039277729</v>
+      <c r="H37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="K37" s="2" t="n">
         <v>0.0001370629370629371</v>
@@ -2093,7 +2504,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>202</v>
@@ -2110,14 +2521,14 @@
       <c r="G38" s="2" t="n">
         <v>12792000</v>
       </c>
-      <c r="H38" s="2" t="n">
-        <v>5.555430268074262e-05</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>0.0005570203892134882</v>
-      </c>
-      <c r="J38" s="2" t="n">
-        <v>0.0005014660865327456</v>
+      <c r="H38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="K38" s="2" t="n">
         <v>1.697051163572209e-05</v>
@@ -2134,7 +2545,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>0</v>
@@ -2143,7 +2554,7 @@
         <v>57</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>1006000</v>
@@ -2151,14 +2562,14 @@
       <c r="G39" s="2" t="n">
         <v>1056000</v>
       </c>
-      <c r="H39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>0.0002812564763004411</v>
-      </c>
-      <c r="J39" s="2" t="n">
-        <v>0.0002812564763004411</v>
+      <c r="H39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="K39" s="2" t="n">
         <v>0</v>
@@ -2175,7 +2586,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>82</v>
@@ -2192,14 +2603,14 @@
       <c r="G40" s="2" t="n">
         <v>4895000</v>
       </c>
-      <c r="H40" s="2" t="n">
-        <v>6.49267871296105e-05</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>0.0003930874838033398</v>
-      </c>
-      <c r="J40" s="2" t="n">
-        <v>0.0003281606966737293</v>
+      <c r="H40" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="K40" s="2" t="n">
         <v>2.342187946301057e-05</v>
@@ -2216,7 +2627,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>154</v>
@@ -2233,14 +2644,14 @@
       <c r="G41" s="2" t="n">
         <v>858000</v>
       </c>
-      <c r="H41" s="2" t="n">
-        <v>0.0007086454747924681</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>0.004870938385758502</v>
-      </c>
-      <c r="J41" s="2" t="n">
-        <v>0.004162292910966034</v>
+      <c r="H41" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="K41" s="2" t="n">
         <v>0.0002209469153515064</v>
@@ -2257,7 +2668,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>26</v>
@@ -2274,14 +2685,14 @@
       <c r="G42" s="2" t="n">
         <v>6595000</v>
       </c>
-      <c r="H42" s="2" t="n">
-        <v>1.450858852638498e-05</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>9.827207246112024e-05</v>
-      </c>
-      <c r="J42" s="2" t="n">
-        <v>8.376348393473527e-05</v>
+      <c r="H42" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="K42" s="2" t="n">
         <v>5.312627707396812e-06</v>
@@ -2298,7 +2709,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>236</v>
@@ -2315,14 +2726,14 @@
       <c r="G43" s="2" t="n">
         <v>27430000</v>
       </c>
-      <c r="H43" s="2" t="n">
-        <v>2.290072409954789e-05</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>0.0001921286638676461</v>
-      </c>
-      <c r="J43" s="2" t="n">
-        <v>0.0001692279397680983</v>
+      <c r="H43" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="K43" s="2" t="n">
         <v>1.383596177522425e-05</v>
@@ -2339,7 +2750,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2004</v>
@@ -2356,14 +2767,14 @@
       <c r="G44" s="2" t="n">
         <v>2991000</v>
       </c>
-      <c r="H44" s="2" t="n">
-        <v>0.00373980371628998</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>0.006082012993333932</v>
-      </c>
-      <c r="J44" s="2" t="n">
-        <v>0.002342209277043952</v>
+      <c r="H44" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="K44" s="2" t="n">
         <v>0.001157712305025997</v>
@@ -2380,7 +2791,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>125</v>
@@ -2397,14 +2808,14 @@
       <c r="G45" s="2" t="n">
         <v>8368000</v>
       </c>
-      <c r="H45" s="2" t="n">
-        <v>6.365589557988739e-05</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>0.0007184190220125109</v>
-      </c>
-      <c r="J45" s="2" t="n">
-        <v>0.0006547631264326235</v>
+      <c r="H45" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="K45" s="2" t="n">
         <v>2.010616052758565e-05</v>
@@ -2421,7 +2832,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>0</v>
@@ -2430,7 +2841,7 @@
         <v>29</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>565000</v>
@@ -2438,14 +2849,14 @@
       <c r="G46" s="2" t="n">
         <v>626000</v>
       </c>
-      <c r="H46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>0.0002196969696969697</v>
-      </c>
-      <c r="J46" s="2" t="n">
-        <v>0.0002196969696969697</v>
+      <c r="H46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="K46" s="2" t="n">
         <v>0</v>
@@ -2462,7 +2873,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>182</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>77</v>
@@ -2479,14 +2890,14 @@
       <c r="G47" s="2" t="n">
         <v>7160000</v>
       </c>
-      <c r="H47" s="2" t="n">
-        <v>3.762466223314586e-05</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>0.0005713153429350521</v>
-      </c>
-      <c r="J47" s="2" t="n">
-        <v>0.0005336906807019062</v>
+      <c r="H47" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="K47" s="2" t="n">
         <v>1.570467060983072e-05</v>
@@ -2503,7 +2914,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>79</v>
@@ -2520,14 +2931,14 @@
       <c r="G48" s="2" t="n">
         <v>5768000</v>
       </c>
-      <c r="H48" s="2" t="n">
-        <v>5.320700150259266e-05</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>0.0003462475213744507</v>
-      </c>
-      <c r="J48" s="2" t="n">
-        <v>0.000293040519871858</v>
+      <c r="H48" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="K48" s="2" t="n">
         <v>1.610601427115189e-05</v>
@@ -2544,7 +2955,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>0</v>
@@ -2553,7 +2964,7 @@
         <v>32</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F49" s="2" t="n">
         <v>1793000</v>
@@ -2561,14 +2972,14 @@
       <c r="G49" s="2" t="n">
         <v>1841000</v>
       </c>
-      <c r="H49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>4.129485169341154e-05</v>
-      </c>
-      <c r="J49" s="2" t="n">
-        <v>4.129485169341154e-05</v>
+      <c r="H49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="K49" s="2" t="n">
         <v>0</v>
@@ -2585,7 +2996,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>649</v>
@@ -2602,14 +3013,14 @@
       <c r="G50" s="2" t="n">
         <v>587000</v>
       </c>
-      <c r="H50" s="2" t="n">
-        <v>0.001624811294065809</v>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v>0.001265846952802811</v>
-      </c>
-      <c r="J50" s="3" t="n">
-        <v>-0.0003589643412629981</v>
+      <c r="H50" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="K50" s="2" t="n">
         <v>0.001429515418502203</v>
@@ -2626,7 +3037,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="C51" s="4" t="n">
         <v>170747</v>
@@ -2643,14 +3054,14 @@
       <c r="G51" s="4" t="n">
         <v>320897000</v>
       </c>
-      <c r="H51" s="2" t="n">
-        <v>0.002020530895270784</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>0.00217823927488928</v>
-      </c>
-      <c r="J51" s="2" t="n">
-        <v>0.0001577083796184967</v>
+      <c r="H51" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="K51" s="2" t="n">
         <v>0.0006840195014081235</v>

--- a/consumption_tables/Total energy consumption._              Billion Btu/Geothermal energy, total consumed._                       Billion Btu.xlsx
+++ b/consumption_tables/Total energy consumption._              Billion Btu/Geothermal energy, total consumed._                       Billion Btu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
   <si>
     <t>StateCode</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>ChangeConsumptionPerCapita</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>0.008731635743550147%</t>
+  </si>
+  <si>
+    <t>0.030005275120948686%</t>
+  </si>
+  <si>
+    <t>0.02127363937739854%</t>
   </si>
   <si>
     <t>AL</t>
@@ -977,7 +989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,19 +1043,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>10.84615384615385</v>
+        <v>3.647058823529412</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4050000</v>
+        <v>553000</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4854000</v>
+        <v>738000</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>13</v>
@@ -1055,13 +1067,13 @@
         <v>15</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>3.209876543209877e-06</v>
+        <v>9.222423146473779e-05</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.904820766378245e-05</v>
+        <v>0.0002520325203252032</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>2.583833112057257e-05</v>
+        <v>0.0001598082888604654</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1072,19 +1084,19 @@
         <v>16</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>808</v>
+        <v>141</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>7.481481481481482</v>
+        <v>10.84615384615385</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2357000</v>
+        <v>4050000</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2978000</v>
+        <v>4854000</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>17</v>
@@ -1096,13 +1108,13 @@
         <v>19</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>4.582095884599067e-05</v>
+        <v>3.209876543209877e-06</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>0.0002713230355943586</v>
+        <v>2.904820766378245e-05</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>0.000225502076748368</v>
+        <v>2.583833112057257e-05</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1113,19 +1125,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>236</v>
+        <v>108</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>345</v>
+        <v>808</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.461864406779661</v>
+        <v>7.481481481481482</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3684000</v>
+        <v>2357000</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6818000</v>
+        <v>2978000</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>21</v>
@@ -1137,13 +1149,13 @@
         <v>23</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>6.406080347448426e-05</v>
+        <v>4.582095884599067e-05</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>5.060134936931652e-05</v>
-      </c>
-      <c r="M4" s="3" t="n">
-        <v>-1.345945410516774e-05</v>
+        <v>0.0002713230355943586</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>0.000225502076748368</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1154,19 +1166,19 @@
         <v>24</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>152147</v>
+        <v>236</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>112878</v>
+        <v>345</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.7419009247635511</v>
+        <v>1.461864406779661</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>29960000</v>
+        <v>3684000</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>38994000</v>
+        <v>6818000</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>25</v>
@@ -1178,13 +1190,13 @@
         <v>27</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>0.005078337783711615</v>
+        <v>6.406080347448426e-05</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>0.002894753038929066</v>
+        <v>5.060134936931652e-05</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>-0.002183584744782549</v>
+        <v>-1.345945410516774e-05</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1195,19 +1207,19 @@
         <v>28</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>405</v>
+        <v>152147</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>759</v>
+        <v>112878</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1.874074074074074</v>
+        <v>0.7419009247635511</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3308000</v>
+        <v>29960000</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5449000</v>
+        <v>38994000</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>29</v>
@@ -1219,13 +1231,13 @@
         <v>31</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0.0001224304715840387</v>
+        <v>0.005078337783711615</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0.0001392916131400257</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>1.6861141555987e-05</v>
+        <v>0.002894753038929066</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>-0.002183584744782549</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1236,37 +1248,37 @@
         <v>32</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1.874074074074074</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>3308000</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>5449000</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>3292000</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>3585000</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>0</v>
+        <v>0.0001224304715840387</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>5.857740585774059e-06</v>
+        <v>0.0001392916131400257</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.857740585774059e-06</v>
+        <v>1.6861141555987e-05</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1277,37 +1289,37 @@
         <v>36</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>430</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>7.818181818181818</v>
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>670000</v>
+        <v>3292000</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>944000</v>
+        <v>3585000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>8.208955223880597e-05</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>0.0004555084745762712</v>
+        <v>5.857740585774059e-06</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0.0003734189223374652</v>
+        <v>5.857740585774059e-06</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1318,19 +1330,19 @@
         <v>40</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>1288</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>10056</v>
+        <v>430</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>7.807453416149069</v>
+        <v>7.818181818181818</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>13033000</v>
+        <v>670000</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>20245000</v>
+        <v>944000</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>41</v>
@@ -1342,13 +1354,13 @@
         <v>43</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>9.882605693240236e-05</v>
+        <v>8.208955223880597e-05</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>0.0004967152383304519</v>
+        <v>0.0004555084745762712</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>0.0003978891813980496</v>
+        <v>0.0003734189223374652</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1359,19 +1371,19 @@
         <v>44</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>40</v>
+        <v>1288</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>315</v>
+        <v>10056</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>7.875</v>
+        <v>7.807453416149069</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6513000</v>
+        <v>13033000</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>10199000</v>
+        <v>20245000</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>45</v>
@@ -1383,13 +1395,13 @@
         <v>47</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>6.141563027790573e-06</v>
+        <v>9.882605693240236e-05</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>3.088538091969801e-05</v>
+        <v>0.0004967152383304519</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>2.474381789190744e-05</v>
+        <v>0.0003978891813980496</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1400,37 +1412,37 @@
         <v>48</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>2154</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>33</v>
+        <v>315</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>7.875</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1113000</v>
+        <v>6513000</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1425000</v>
+        <v>10199000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>0</v>
+        <v>6.141563027790573e-06</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0.001511578947368421</v>
+        <v>3.088538091969801e-05</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>0.001511578947368421</v>
+        <v>2.474381789190744e-05</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1438,40 +1450,40 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1281</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>20.33333333333333</v>
+        <v>2154</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2781000</v>
+        <v>1113000</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3122000</v>
+        <v>1425000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>2.26537216828479e-05</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0.0004103139013452915</v>
+        <v>0.001511578947368421</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>0.0003876601796624436</v>
+        <v>0.001511578947368421</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1482,19 +1494,19 @@
         <v>54</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>536</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>2207</v>
+        <v>1281</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>4.117537313432836</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1012000</v>
+        <v>2781000</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1653000</v>
+        <v>3122000</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>55</v>
@@ -1506,13 +1518,13 @@
         <v>57</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>0.0005296442687747036</v>
+        <v>2.26537216828479e-05</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>0.001335148215366001</v>
+        <v>0.0004103139013452915</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>0.0008055039465912977</v>
+        <v>0.0003876601796624436</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1523,19 +1535,19 @@
         <v>58</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>270</v>
+        <v>536</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>2042</v>
+        <v>2207</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>7.562962962962963</v>
+        <v>4.117537313432836</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>11453000</v>
+        <v>1012000</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>12839000</v>
+        <v>1653000</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>59</v>
@@ -1547,13 +1559,13 @@
         <v>61</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>2.357460927267965e-05</v>
+        <v>0.0005296442687747036</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0.0001590466547238882</v>
+        <v>0.001335148215366001</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>0.0001354720454512085</v>
+        <v>0.0008055039465912977</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1564,19 +1576,19 @@
         <v>62</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>502</v>
+        <v>270</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>4647</v>
+        <v>2042</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>9.256972111553784</v>
+        <v>7.562962962962963</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5558000</v>
+        <v>11453000</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>6613000</v>
+        <v>12839000</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>63</v>
@@ -1588,13 +1600,13 @@
         <v>65</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>9.032025908600215e-05</v>
+        <v>2.357460927267965e-05</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>0.0007027067896567367</v>
+        <v>0.0001590466547238882</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>0.0006123865305707345</v>
+        <v>0.0001354720454512085</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1605,19 +1617,19 @@
         <v>66</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>43</v>
+        <v>502</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>974</v>
+        <v>4647</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>22.65116279069768</v>
+        <v>9.256972111553784</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2481000</v>
+        <v>5558000</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2907000</v>
+        <v>6613000</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>67</v>
@@ -1629,13 +1641,13 @@
         <v>69</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.733172108020959e-05</v>
+        <v>9.032025908600215e-05</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0.0003350533195734434</v>
+        <v>0.0007027067896567367</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>0.0003177215984932338</v>
+        <v>0.0006123865305707345</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1646,19 +1658,19 @@
         <v>70</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>237</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>2712</v>
+        <v>974</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>11.44303797468354</v>
+        <v>22.65116279069768</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3694000</v>
+        <v>2481000</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4425000</v>
+        <v>2907000</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>71</v>
@@ -1670,13 +1682,13 @@
         <v>73</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>6.415809420682187e-05</v>
+        <v>1.733172108020959e-05</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>0.0006128813559322034</v>
+        <v>0.0003350533195734434</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>0.0005487232617253816</v>
+        <v>0.0003177215984932338</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1687,19 +1699,19 @@
         <v>74</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>121</v>
+        <v>237</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1842</v>
+        <v>2712</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>15.22314049586777</v>
+        <v>11.44303797468354</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4222000</v>
+        <v>3694000</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4669000</v>
+        <v>4425000</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>75</v>
@@ -1711,13 +1723,13 @@
         <v>77</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>2.865940312648034e-05</v>
+        <v>6.415809420682187e-05</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0.0003945170272006854</v>
+        <v>0.0006128813559322034</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>0.0003658576240742051</v>
+        <v>0.0005487232617253816</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1728,19 +1740,19 @@
         <v>78</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>859</v>
+        <v>1842</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>42.95</v>
+        <v>15.22314049586777</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>6023000</v>
+        <v>4222000</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>6784000</v>
+        <v>4669000</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>79</v>
@@ -1752,13 +1764,13 @@
         <v>81</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>3.320604349991699e-06</v>
+        <v>2.865940312648034e-05</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0.0001266214622641509</v>
+        <v>0.0003945170272006854</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>0.0001233008579141592</v>
+        <v>0.0003658576240742051</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1769,19 +1781,19 @@
         <v>82</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>570</v>
+        <v>859</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>7.916666666666667</v>
+        <v>42.95</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>4800000</v>
+        <v>6023000</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>5995000</v>
+        <v>6784000</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>83</v>
@@ -1793,13 +1805,13 @@
         <v>85</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.5e-05</v>
+        <v>3.320604349991699e-06</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>9.507923269391159e-05</v>
+        <v>0.0001266214622641509</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>8.007923269391159e-05</v>
+        <v>0.0001233008579141592</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1810,37 +1822,37 @@
         <v>86</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>33</v>
+        <v>570</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>7.916666666666667</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1232000</v>
+        <v>4800000</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1329000</v>
+        <v>5995000</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>0</v>
+        <v>1.5e-05</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>5.417607223476298e-05</v>
+        <v>9.507923269391159e-05</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>5.417607223476298e-05</v>
+        <v>8.007923269391159e-05</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1848,40 +1860,40 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>5193</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>8.968911917098445</v>
+        <v>72</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>9311000</v>
+        <v>1232000</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>9918000</v>
+        <v>1329000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>6.218451294168189e-05</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0.0005235934664246824</v>
+        <v>5.417607223476298e-05</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>0.0004614089534830006</v>
+        <v>5.417607223476298e-05</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1892,19 +1904,19 @@
         <v>92</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>145</v>
+        <v>579</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1075</v>
+        <v>5193</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>7.413793103448276</v>
+        <v>8.968911917098445</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>4390000</v>
+        <v>9311000</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>5482000</v>
+        <v>9918000</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>93</v>
@@ -1916,13 +1928,13 @@
         <v>95</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>3.302961275626424e-05</v>
+        <v>6.218451294168189e-05</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>0.0001960963152134258</v>
+        <v>0.0005235934664246824</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>0.0001630667024571615</v>
+        <v>0.0004614089534830006</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1933,19 +1945,19 @@
         <v>96</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>352</v>
+        <v>1075</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>7.822222222222222</v>
+        <v>7.413793103448276</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5129000</v>
+        <v>4390000</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>6076000</v>
+        <v>5482000</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>97</v>
@@ -1957,13 +1969,13 @@
         <v>99</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>8.773640085786704e-06</v>
+        <v>3.302961275626424e-05</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>5.793285055957867e-05</v>
+        <v>0.0001960963152134258</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.915921047379197e-05</v>
+        <v>0.0001630667024571615</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1974,19 +1986,19 @@
         <v>100</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>958</v>
+        <v>352</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>38.32</v>
+        <v>7.822222222222222</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2579000</v>
+        <v>5129000</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2989000</v>
+        <v>6076000</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>101</v>
@@ -1998,13 +2010,13 @@
         <v>103</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>9.693679720822024e-06</v>
+        <v>8.773640085786704e-06</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>0.000320508531281365</v>
+        <v>5.793285055957867e-05</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>0.000310814851560543</v>
+        <v>4.915921047379197e-05</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2015,19 +2027,19 @@
         <v>104</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>337</v>
+        <v>958</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>2.674603174603174</v>
+        <v>38.32</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>800000</v>
+        <v>2579000</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1032000</v>
+        <v>2989000</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>105</v>
@@ -2039,13 +2051,13 @@
         <v>107</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>0.0001575</v>
+        <v>9.693679720822024e-06</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>0.0003265503875968992</v>
+        <v>0.000320508531281365</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>0.0001690503875968992</v>
+        <v>0.000310814851560543</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2056,19 +2068,19 @@
         <v>108</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>967</v>
+        <v>337</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>7.861788617886178</v>
+        <v>2.674603174603174</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>6664000</v>
+        <v>800000</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>10035000</v>
+        <v>1032000</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>109</v>
@@ -2080,13 +2092,13 @@
         <v>111</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.845738295318127e-05</v>
+        <v>0.0001575</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>9.636273044344794e-05</v>
+        <v>0.0003265503875968992</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>7.790534749026667e-05</v>
+        <v>0.0001690503875968992</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2097,19 +2109,19 @@
         <v>112</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>11.92682926829268</v>
+        <v>7.861788617886178</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>638000</v>
+        <v>6664000</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>757000</v>
+        <v>10035000</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>113</v>
@@ -2121,13 +2133,13 @@
         <v>115</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>0.0001285266457680251</v>
+        <v>1.845738295318127e-05</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>0.001291941875825628</v>
+        <v>9.636273044344794e-05</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>0.001163415230057602</v>
+        <v>7.790534749026667e-05</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2138,19 +2150,19 @@
         <v>116</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1212</v>
+        <v>978</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>15.15</v>
+        <v>11.92682926829268</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1221000</v>
+        <v>638000</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2884000</v>
+        <v>757000</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>117</v>
@@ -2162,13 +2174,13 @@
         <v>119</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>6.552006552006552e-05</v>
+        <v>0.0001285266457680251</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>0.000420249653259362</v>
+        <v>0.001291941875825628</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>0.0003547295877392965</v>
+        <v>0.001163415230057602</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2179,37 +2191,37 @@
         <v>120</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>33</v>
+        <v>1212</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>15.15</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1112000</v>
+        <v>1221000</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1330000</v>
+        <v>2884000</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>0</v>
+        <v>6.552006552006552e-05</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>2.180451127819549e-05</v>
+        <v>0.000420249653259362</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>2.180451127819549e-05</v>
+        <v>0.0003547295877392965</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2217,40 +2229,40 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>466</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>7.396825396825397</v>
+        <v>29</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>7763000</v>
+        <v>1112000</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>8935000</v>
+        <v>1330000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>125</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>8.115419296663661e-06</v>
+        <v>0</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>5.215444879686626e-05</v>
+        <v>2.180451127819549e-05</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.40390295002026e-05</v>
+        <v>2.180451127819549e-05</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2261,19 +2273,19 @@
         <v>126</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>3.914529914529914</v>
+        <v>7.396825396825397</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1522000</v>
+        <v>7763000</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2080000</v>
+        <v>8935000</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>127</v>
@@ -2285,13 +2297,13 @@
         <v>129</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>7.687253613666229e-05</v>
+        <v>8.115419296663661e-06</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>0.0002201923076923077</v>
+        <v>5.215444879686626e-05</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>0.0001433197715556454</v>
+        <v>4.40390295002026e-05</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2302,37 +2314,37 @@
         <v>130</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>8707</v>
+        <v>117</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>30535</v>
+        <v>458</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>3.506948432295854</v>
+        <v>3.914529914529914</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1582000</v>
+        <v>1522000</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1894000</v>
-      </c>
-      <c r="H33" s="4" t="s">
+        <v>2080000</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="K33" s="4" t="n">
-        <v>0.005503792667509481</v>
-      </c>
-      <c r="L33" s="4" t="n">
-        <v>0.01612196409714889</v>
-      </c>
-      <c r="M33" s="4" t="n">
-        <v>0.01061817142963941</v>
+      <c r="K33" s="2" t="n">
+        <v>7.687253613666229e-05</v>
+      </c>
+      <c r="L33" s="2" t="n">
+        <v>0.0002201923076923077</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>0.0001433197715556454</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2343,37 +2355,37 @@
         <v>134</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>73</v>
+        <v>8707</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1185</v>
+        <v>30535</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>16.23287671232877</v>
+        <v>3.506948432295854</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>18021000</v>
+        <v>1582000</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>19747000</v>
-      </c>
-      <c r="H34" s="2" t="s">
+        <v>1894000</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="K34" s="2" t="n">
-        <v>4.050829587703235e-06</v>
-      </c>
-      <c r="L34" s="2" t="n">
-        <v>6.000911530865448e-05</v>
-      </c>
-      <c r="M34" s="2" t="n">
-        <v>5.595828572095124e-05</v>
+      <c r="K34" s="4" t="n">
+        <v>0.005503792667509481</v>
+      </c>
+      <c r="L34" s="4" t="n">
+        <v>0.01612196409714889</v>
+      </c>
+      <c r="M34" s="4" t="n">
+        <v>0.01061817142963941</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2384,19 +2396,19 @@
         <v>138</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>347</v>
+        <v>73</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>3435</v>
+        <v>1185</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>9.899135446685879</v>
+        <v>16.23287671232877</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>10864000</v>
+        <v>18021000</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>11605000</v>
+        <v>19747000</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>139</v>
@@ -2408,13 +2420,13 @@
         <v>141</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>3.194035346097201e-05</v>
+        <v>4.050829587703235e-06</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>0.0002959931064196467</v>
+        <v>6.000911530865448e-05</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>0.0002640527529586747</v>
+        <v>5.595828572095124e-05</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2425,19 +2437,19 @@
         <v>142</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>1</v>
+        <v>347</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>24</v>
+        <v>3435</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>24</v>
+        <v>9.899135446685879</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>3149000</v>
+        <v>10864000</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>3907000</v>
+        <v>11605000</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>143</v>
@@ -2449,13 +2461,13 @@
         <v>145</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>3.175611305176247e-07</v>
+        <v>3.194035346097201e-05</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>6.142820578448937e-06</v>
+        <v>0.0002959931064196467</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>5.825259447931313e-06</v>
+        <v>0.0002640527529586747</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2466,19 +2478,19 @@
         <v>146</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>392</v>
+        <v>1</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>2898</v>
+        <v>24</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>7.392857142857143</v>
+        <v>24</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2860000</v>
+        <v>3149000</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>4025000</v>
+        <v>3907000</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>147</v>
@@ -2490,13 +2502,13 @@
         <v>149</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>0.0001370629370629371</v>
+        <v>3.175611305176247e-07</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>0.00072</v>
+        <v>6.142820578448937e-06</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>0.000582937062937063</v>
+        <v>5.825259447931313e-06</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2507,19 +2519,19 @@
         <v>150</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>202</v>
+        <v>392</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>2162</v>
+        <v>2898</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>10.7029702970297</v>
+        <v>7.392857142857143</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>11903000</v>
+        <v>2860000</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>12792000</v>
+        <v>4025000</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>151</v>
@@ -2531,13 +2543,13 @@
         <v>153</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.697051163572209e-05</v>
+        <v>0.0001370629370629371</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>0.0001690118824265166</v>
+        <v>0.00072</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>0.0001520413707907945</v>
+        <v>0.000582937062937063</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2548,37 +2560,37 @@
         <v>154</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>33</v>
+        <v>2162</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>10.7029702970297</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1006000</v>
+        <v>11903000</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1056000</v>
+        <v>12792000</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>0</v>
+        <v>1.697051163572209e-05</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>5.397727272727273e-05</v>
+        <v>0.0001690118824265166</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>5.397727272727273e-05</v>
+        <v>0.0001520413707907945</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2586,40 +2598,40 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>648</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>7.902439024390244</v>
+        <v>57</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>3501000</v>
+        <v>1006000</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>4895000</v>
+        <v>1056000</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>159</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>2.342187946301057e-05</v>
+        <v>0</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>0.0001323799795709908</v>
+        <v>5.397727272727273e-05</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>0.0001089581001079802</v>
+        <v>5.397727272727273e-05</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2630,19 +2642,19 @@
         <v>160</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>1868</v>
+        <v>648</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>12.12987012987013</v>
+        <v>7.902439024390244</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>697000</v>
+        <v>3501000</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>858000</v>
+        <v>4895000</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>161</v>
@@ -2654,13 +2666,13 @@
         <v>163</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>0.0002209469153515064</v>
+        <v>2.342187946301057e-05</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>0.002177156177156177</v>
+        <v>0.0001323799795709908</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>0.001956209261804671</v>
+        <v>0.0001089581001079802</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2671,19 +2683,19 @@
         <v>164</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>213</v>
+        <v>1868</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>8.192307692307692</v>
+        <v>12.12987012987013</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>4894000</v>
+        <v>697000</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>6595000</v>
+        <v>858000</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>165</v>
@@ -2695,13 +2707,13 @@
         <v>167</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>5.312627707396812e-06</v>
+        <v>0.0002209469153515064</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>3.229719484457922e-05</v>
+        <v>0.002177156177156177</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>2.698456713718241e-05</v>
+        <v>0.001956209261804671</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2712,19 +2724,19 @@
         <v>168</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>236</v>
+        <v>26</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>2478</v>
+        <v>213</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>10.5</v>
+        <v>8.192307692307692</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>17057000</v>
+        <v>4894000</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>27430000</v>
+        <v>6595000</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>169</v>
@@ -2736,36 +2748,36 @@
         <v>171</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.383596177522425e-05</v>
+        <v>5.312627707396812e-06</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>9.033904484141451e-05</v>
+        <v>3.229719484457922e-05</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>7.650308306619026e-05</v>
+        <v>2.698456713718241e-05</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>2004</v>
+        <v>236</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>4811</v>
+        <v>2478</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>2.400698602794411</v>
+        <v>10.5</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>1731000</v>
+        <v>17057000</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>2991000</v>
+        <v>27430000</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>173</v>
@@ -2777,13 +2789,13 @@
         <v>175</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>0.001157712305025997</v>
+        <v>1.383596177522425e-05</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>0.001608492143095955</v>
+        <v>9.033904484141451e-05</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>0.0004507798380699579</v>
+        <v>7.650308306619026e-05</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2794,19 +2806,19 @@
         <v>176</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>125</v>
+        <v>2004</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>1701</v>
+        <v>4811</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>13.608</v>
+        <v>2.400698602794411</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>6217000</v>
+        <v>1731000</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>8368000</v>
+        <v>2991000</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>177</v>
@@ -2818,13 +2830,13 @@
         <v>179</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>2.010616052758565e-05</v>
+        <v>0.001157712305025997</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>0.000203274378585086</v>
+        <v>0.001608492143095955</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>0.0001831682180575004</v>
+        <v>0.0004507798380699579</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2835,37 +2847,37 @@
         <v>180</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>33</v>
+        <v>1701</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>13.608</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>565000</v>
+        <v>6217000</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>626000</v>
+        <v>8368000</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>0</v>
+        <v>2.010616052758565e-05</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>4.63258785942492e-05</v>
+        <v>0.000203274378585086</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>4.63258785942492e-05</v>
+        <v>0.0001831682180575004</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2873,40 +2885,40 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>1136</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>14.75324675324675</v>
+        <v>29</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>4903000</v>
+        <v>565000</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>7160000</v>
+        <v>626000</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>185</v>
       </c>
       <c r="K47" s="2" t="n">
-        <v>1.570467060983072e-05</v>
+        <v>0</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>0.000158659217877095</v>
+        <v>4.63258785942492e-05</v>
       </c>
       <c r="M47" s="2" t="n">
-        <v>0.0001429545472672642</v>
+        <v>4.63258785942492e-05</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2917,19 +2929,19 @@
         <v>186</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>615</v>
+        <v>1136</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>7.784810126582278</v>
+        <v>14.75324675324675</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>4905000</v>
+        <v>4903000</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>5768000</v>
+        <v>7160000</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>187</v>
@@ -2941,13 +2953,13 @@
         <v>189</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>1.610601427115189e-05</v>
+        <v>1.570467060983072e-05</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>0.000106622746185853</v>
+        <v>0.000158659217877095</v>
       </c>
       <c r="M48" s="2" t="n">
-        <v>9.05167319147011e-05</v>
+        <v>0.0001429545472672642</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2958,101 +2970,101 @@
         <v>190</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>33</v>
+        <v>615</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>7.784810126582278</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>1793000</v>
+        <v>4905000</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>1841000</v>
+        <v>5768000</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>0</v>
+        <v>1.610601427115189e-05</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>1.73818576860402e-05</v>
+        <v>0.000106622746185853</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>1.73818576860402e-05</v>
+        <v>9.05167319147011e-05</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>192</v>
+      <c r="B50" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>649</v>
+        <v>0</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>663</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>1.021571648690293</v>
+        <v>32</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>454000</v>
+        <v>1793000</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>587000</v>
+        <v>1841000</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>195</v>
       </c>
       <c r="K50" s="2" t="n">
-        <v>0.001429515418502203</v>
+        <v>0</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>0.001129471890971039</v>
-      </c>
-      <c r="M50" s="3" t="n">
-        <v>-0.0003000435275311636</v>
+        <v>1.73818576860402e-05</v>
+      </c>
+      <c r="M50" s="2" t="n">
+        <v>1.73818576860402e-05</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C51" s="4" t="n">
-        <v>170747</v>
-      </c>
-      <c r="D51" s="4" t="n">
-        <v>211836</v>
+      <c r="C51" s="2" t="n">
+        <v>649</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>663</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>1.240642588156746</v>
-      </c>
-      <c r="F51" s="4" t="n">
-        <v>249623000</v>
-      </c>
-      <c r="G51" s="4" t="n">
-        <v>320897000</v>
+        <v>1.021571648690293</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>454000</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>587000</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>197</v>
@@ -3064,12 +3076,53 @@
         <v>199</v>
       </c>
       <c r="K51" s="2" t="n">
+        <v>0.001429515418502203</v>
+      </c>
+      <c r="L51" s="2" t="n">
+        <v>0.001129471890971039</v>
+      </c>
+      <c r="M51" s="3" t="n">
+        <v>-0.0003000435275311636</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C52" s="4" t="n">
+        <v>170747</v>
+      </c>
+      <c r="D52" s="4" t="n">
+        <v>211836</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>1.240642588156746</v>
+      </c>
+      <c r="F52" s="4" t="n">
+        <v>249623000</v>
+      </c>
+      <c r="G52" s="4" t="n">
+        <v>320897000</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K52" s="2" t="n">
         <v>0.0006840195014081235</v>
       </c>
-      <c r="L51" s="2" t="n">
+      <c r="L52" s="2" t="n">
         <v>0.0006601370533224056</v>
       </c>
-      <c r="M51" s="3" t="n">
+      <c r="M52" s="3" t="n">
         <v>-2.388244808571786e-05</v>
       </c>
     </row>
